--- a/src/main/resources/task4.xlsx
+++ b/src/main/resources/task4.xlsx
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -98,6 +98,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,7 +385,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,7 +422,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>17</v>
       </c>
     </row>
